--- a/bootloader/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
+++ b/bootloader/project/MDK_V5/AT32F415CCT7_WorkBench_analysis.xlsx
@@ -15,33 +15,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>AT32F415CCT7_WorkBench</t>
   </si>
   <si>
-    <t>lto-llvm-472ed9.o</t>
+    <t>at32f415_int.o</t>
   </si>
   <si>
     <t>startup_at32f415.o</t>
   </si>
   <si>
+    <t>wk_system.o</t>
+  </si>
+  <si>
+    <t>system_at32f415.o</t>
+  </si>
+  <si>
+    <t>iap.o</t>
+  </si>
+  <si>
+    <t>main.o</t>
+  </si>
+  <si>
+    <t>at32f415_crm.o</t>
+  </si>
+  <si>
+    <t>at32f415_usart.o</t>
+  </si>
+  <si>
+    <t>at32f415_wk_config.o</t>
+  </si>
+  <si>
+    <t>at32f415_flash.o</t>
+  </si>
+  <si>
+    <t>at32f415_gpio.o</t>
+  </si>
+  <si>
+    <t>at32f415_misc.o</t>
+  </si>
+  <si>
+    <t>at32f415_crc.o</t>
+  </si>
+  <si>
+    <t>wk_usart.o</t>
+  </si>
+  <si>
     <t>mc_w.l</t>
   </si>
   <si>
-    <t>uldiv.o</t>
+    <t>wk_gpio.o</t>
+  </si>
+  <si>
+    <t>flash.o</t>
   </si>
   <si>
     <t>init.o</t>
   </si>
   <si>
-    <t>llushr.o</t>
-  </si>
-  <si>
-    <t>llshl.o</t>
+    <t>wk_crc.o</t>
+  </si>
+  <si>
+    <t>memcpya.o</t>
   </si>
   <si>
     <t>handlers.o</t>
+  </si>
+  <si>
+    <t>wk_debug.o</t>
   </si>
   <si>
     <t>entry9a.o</t>
@@ -170,16 +212,28 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$14</c:f>
+              <c:f>ram_percent!$A$3:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-472ed9.o</c:v>
+                  <c:v>at32f415_int.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>startup_at32f415.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="2">
+                  <c:v>wk_system.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>system_at32f415.o</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>iap.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -187,17 +241,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$14</c:f>
+              <c:f>ram_percent!$B$3:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>80.24691009521484</c:v>
+                  <c:v>79.98841857910156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.75308609008789</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                  <c:v>19.76070976257324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07719027251005173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07719027251005173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.07719027251005173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01929756812751293</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -265,43 +331,85 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$14</c:f>
+              <c:f>flash_percent!$A$3:$A$28</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-472ed9.o</c:v>
+                  <c:v>at32f415_int.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>at32f415_crm.o</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>at32f415_usart.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>startup_at32f415.o</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>system_at32f415.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>iap.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>at32f415_wk_config.o</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>at32f415_flash.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>at32f415_gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>at32f415_misc.o</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>at32f415_crc.o</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>wk_usart.o</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>uldiv.o</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>main.o</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>wk_gpio.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>flash.o</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>wk_system.o</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>llushr.o</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>llshl.o</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
+                  <c:v>wk_crc.o</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>memcpya.o</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
+                  <c:v>wk_debug.o</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="23">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="24">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="25">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -309,44 +417,86 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$14</c:f>
+              <c:f>flash_percent!$B$3:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>89.74130249023438</c:v>
+                  <c:v>16.6020450592041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.504906177520752</c:v>
+                  <c:v>15.89707469940186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.876895666122437</c:v>
+                  <c:v>9.904829025268555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.092774271965027</c:v>
+                  <c:v>7.120197296142578</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5352364182472229</c:v>
+                  <c:v>6.274233341217041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3568242788314819</c:v>
+                  <c:v>6.133239269256592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3345227539539337</c:v>
+                  <c:v>6.027493953704834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3345227539539337</c:v>
+                  <c:v>5.287275314331055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.08920606970787048</c:v>
+                  <c:v>4.793796062469482</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.08920606970787048</c:v>
+                  <c:v>3.806838274002075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04460303485393524</c:v>
+                  <c:v>2.573140621185303</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2.53789210319519</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.361649513244629</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.114910125732422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.832922101020813</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.797673583030701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.48043704032898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8459640741348267</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8459640741348267</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6344730257987976</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5287275314331055</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2467395067214966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1409940123558044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1409940123558044</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.07049700617790222</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -451,8 +601,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H14" totalsRowCount="1">
-  <autoFilter ref="A2:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H28" totalsRowCount="1">
+  <autoFilter ref="A2:H27"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -468,8 +618,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H14" totalsRowCount="1">
-  <autoFilter ref="A2:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H28" totalsRowCount="1">
+  <autoFilter ref="A2:H27"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -769,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,28 +935,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -814,25 +964,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>80.24691009521484</v>
+        <v>79.98841857910156</v>
       </c>
       <c r="C3" s="1">
-        <v>4160</v>
+        <v>4145</v>
       </c>
       <c r="D3" s="1">
-        <v>8048</v>
+        <v>942</v>
       </c>
       <c r="E3" s="1">
-        <v>8008</v>
+        <v>938</v>
       </c>
       <c r="F3" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>4152</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -840,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>19.75308609008789</v>
+        <v>19.76070976257324</v>
       </c>
       <c r="C4" s="1">
         <v>1024</v>
@@ -861,35 +1011,139 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.07719027251005173</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>84</v>
+      </c>
+      <c r="E5" s="1">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.07719027251005173</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>356</v>
+      </c>
+      <c r="E6" s="1">
+        <v>352</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.07719027251005173</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>348</v>
+      </c>
+      <c r="E7" s="1">
+        <v>348</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.01929756812751293</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1">
+        <v>120</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C28">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D28">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E28">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F28">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G28">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H28">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -905,7 +1159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -921,28 +1175,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -950,68 +1204,68 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>89.74130249023438</v>
+        <v>16.6020450592041</v>
       </c>
       <c r="C3" s="1">
-        <v>8048</v>
+        <v>942</v>
       </c>
       <c r="D3" s="1">
-        <v>4160</v>
+        <v>4145</v>
       </c>
       <c r="E3" s="1">
-        <v>8008</v>
+        <v>938</v>
       </c>
       <c r="F3" s="1">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>4152</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>4.504906177520752</v>
+        <v>15.89707469940186</v>
       </c>
       <c r="C4" s="1">
-        <v>404</v>
+        <v>902</v>
       </c>
       <c r="D4" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>36</v>
+        <v>894</v>
       </c>
       <c r="F4" s="1">
-        <v>368</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>2.876895666122437</v>
+        <v>9.904829025268555</v>
       </c>
       <c r="C5" s="1">
-        <v>258</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>258</v>
+        <v>562</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1025,51 +1279,51 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>1.092774271965027</v>
+        <v>7.120197296142578</v>
       </c>
       <c r="C6" s="1">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="E6" s="1">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>0.5352364182472229</v>
+        <v>6.274233341217041</v>
       </c>
       <c r="C7" s="1">
-        <v>48</v>
+        <v>356</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1077,19 +1331,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>0.3568242788314819</v>
+        <v>6.133239269256592</v>
       </c>
       <c r="C8" s="1">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1098,24 +1352,24 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>0.3345227539539337</v>
+        <v>6.027493953704834</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1129,19 +1383,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>0.3345227539539337</v>
+        <v>5.287275314331055</v>
       </c>
       <c r="C10" s="1">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1155,19 +1409,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>0.08920606970787048</v>
+        <v>4.793796062469482</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1181,19 +1435,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>0.08920606970787048</v>
+        <v>3.806838274002075</v>
       </c>
       <c r="C12" s="1">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1207,59 +1461,423 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>0.04460303485393524</v>
+        <v>2.573140621185303</v>
       </c>
       <c r="C13" s="1">
+        <v>146</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>146</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.53789210319519</v>
+      </c>
+      <c r="C14" s="1">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>144</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.361649513244629</v>
+      </c>
+      <c r="C15" s="1">
+        <v>134</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>134</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.114910125732422</v>
+      </c>
+      <c r="C16" s="1">
+        <v>120</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>120</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.832922101020813</v>
+      </c>
+      <c r="C17" s="1">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>104</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.797673583030701</v>
+      </c>
+      <c r="C18" s="1">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>102</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1.48043704032898</v>
+      </c>
+      <c r="C19" s="1">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="E19" s="1">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.8459640741348267</v>
+      </c>
+      <c r="C20" s="1">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.8459640741348267</v>
+      </c>
+      <c r="C21" s="1">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.6344730257987976</v>
+      </c>
+      <c r="C22" s="1">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.5287275314331055</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.2467395067214966</v>
+      </c>
+      <c r="C24" s="1">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.1409940123558044</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.1409940123558044</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.07049700617790222</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C28">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D28">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E28">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F28">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G28">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H28">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
